--- a/non neg matrix factorization topics.xlsx
+++ b/non neg matrix factorization topics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,16 +28,16 @@
     <t>Terms</t>
   </si>
   <si>
-    <t>call,phone,time,told,day,number,calling,called,know,even,back,work,people,said,help,trying,make,one,stop,job</t>
-  </si>
-  <si>
-    <t>interest,year,pay,high,amount,principal,paying,rate,left,payment,balance,original,money,making,total,month,borrowed,owe,go,consolidated</t>
-  </si>
-  <si>
-    <t>payment,late,fee,account,check,bank,month,sent,charge,statement,due,made,letter,send,never,paid,one,amount,copy,charged</t>
-  </si>
-  <si>
-    <t>report,credit,replied,listed,however,asked,reporting,paid,year,debt,remove,removed,since,another,score,greedy,right,lost,reported,could</t>
+    <t>call,phone,time,told,day,number,calling,called,know,even,back,work,people,said,trying,help,make,harassing,one,stop</t>
+  </si>
+  <si>
+    <t>interest,year,pay,high,amount,principal,paying,rate,left,payment,balance,money,original,total,making,month,borrowed,owe,go,consolidated</t>
+  </si>
+  <si>
+    <t>payment,late,fee,account,check,bank,month,sent,charge,statement,due,made,letter,send,never,one,paid,amount,monthly,charged</t>
+  </si>
+  <si>
+    <t>report,credit,replied,listed,however,asked,reporting,paid,year,remove,debt,removed,since,another,score,greedy,right,lost,reported,could</t>
   </si>
   <si>
     <t>present,refuse,already,bill,paid,original,balance,threat,legal,cosigner,lowering,sending,pay,doe,help,send,correspondence,want,clue,suppose</t>
@@ -111,221 +111,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Score for Negativity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.34229060118055382</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.27194629119661912</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.61357900486659223</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.1841611650360854</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.46382019914527112</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Percent Dominance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.51526717557251911</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1862595419847328</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22595419847328241</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.9541984732824432E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2977099236641219E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="97375744"/>
-        <c:axId val="97377280"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97375744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97377280"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97377280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97375744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,12 +403,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="132.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -641,10 +420,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.34229060118055382</v>
+        <v>0.346227082228946</v>
       </c>
       <c r="B2">
-        <v>0.51526717557251911</v>
+        <v>0.5030534351145038</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -655,10 +434,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>-0.27194629119661912</v>
+        <v>-0.2605805839312383</v>
       </c>
       <c r="B3">
-        <v>0.1862595419847328</v>
+        <v>0.1885496183206107</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -669,10 +448,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>-0.61357900486659223</v>
+        <v>-0.6104312697124566</v>
       </c>
       <c r="B4">
-        <v>0.22595419847328241</v>
+        <v>0.2351145038167939</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -683,10 +462,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-0.1841611650360854</v>
+        <v>-0.1834544358500072</v>
       </c>
       <c r="B5">
-        <v>5.9541984732824432E-2</v>
+        <v>0.06030534351145038</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -697,10 +476,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-0.46382019914527112</v>
+        <v>-0.4616861170779376</v>
       </c>
       <c r="B6">
-        <v>1.2977099236641219E-2</v>
+        <v>0.01297709923664122</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -711,6 +490,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/non neg matrix factorization topics.xlsx
+++ b/non neg matrix factorization topics.xlsx
@@ -28,19 +28,19 @@
     <t>Terms</t>
   </si>
   <si>
-    <t>call,phone,time,told,day,number,calling,called,know,even,back,work,people,said,trying,help,make,harassing,one,stop</t>
-  </si>
-  <si>
-    <t>interest,year,pay,high,amount,principal,paying,rate,left,payment,balance,money,original,total,making,month,borrowed,owe,go,consolidated</t>
-  </si>
-  <si>
-    <t>payment,late,fee,account,check,bank,month,sent,charge,statement,due,made,letter,send,never,one,paid,amount,monthly,charged</t>
-  </si>
-  <si>
-    <t>report,credit,replied,listed,however,asked,reporting,paid,year,remove,debt,removed,since,another,score,greedy,right,lost,reported,could</t>
-  </si>
-  <si>
-    <t>present,refuse,already,bill,paid,original,balance,threat,legal,cosigner,lowering,sending,pay,doe,help,send,correspondence,want,clue,suppose</t>
+    <t>call,phone,time,tell,day,try,say,harass,go,number,work,make,know,even,give,back,help,ask,people,speak</t>
+  </si>
+  <si>
+    <t>interest,year,pay,high,principal,amount,rate,payment,leave,balance,make,go,consolidate,charge,total,borrow,money,take,apply,month</t>
+  </si>
+  <si>
+    <t>payment,late,fee,account,check,send,bank,charge,month,statement,receive,make,apply,letter,mail,cash,due,copy,never,amount</t>
+  </si>
+  <si>
+    <t>report,credit,reply,list,however,remove,year,ask,debt,another,since,pay,write,right,score,keep,agency,lose,greedy,could</t>
+  </si>
+  <si>
+    <t>present,already,refuse,bill,pay,original,balance,threat,send,legal,lower,college,son,want,talk,help,correspondence,able,cosigner,clue</t>
   </si>
 </sst>
 </file>
@@ -420,10 +420,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.346227082228946</v>
+        <v>0.3192080265513397</v>
       </c>
       <c r="B2">
-        <v>0.5030534351145038</v>
+        <v>0.5274809160305344</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -434,10 +434,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>-0.2605805839312383</v>
+        <v>-0.294468947278769</v>
       </c>
       <c r="B3">
-        <v>0.1885496183206107</v>
+        <v>0.1740458015267176</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>-0.6104312697124566</v>
+        <v>-0.6584019662348324</v>
       </c>
       <c r="B4">
-        <v>0.2351145038167939</v>
+        <v>0.2198473282442748</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>-0.1834544358500072</v>
+        <v>-0.3119978868290287</v>
       </c>
       <c r="B5">
-        <v>0.06030534351145038</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -476,10 +476,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>-0.4616861170779376</v>
+        <v>-0.5005420399354448</v>
       </c>
       <c r="B6">
-        <v>0.01297709923664122</v>
+        <v>0.01755725190839695</v>
       </c>
       <c r="C6">
         <v>4</v>
